--- a/scenarios/cough/processes/Introduction.xlsx
+++ b/scenarios/cough/processes/Introduction.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">introduction</t>
@@ -243,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -252,10 +258,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,6 +268,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -378,57 +384,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="9"/>
@@ -438,29 +448,29 @@
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="9"/>
@@ -470,13 +480,13 @@
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="5"/>
@@ -485,29 +495,29 @@
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="9"/>
@@ -517,13 +527,13 @@
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="5"/>
@@ -532,29 +542,29 @@
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="9"/>
@@ -564,13 +574,13 @@
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
@@ -579,13 +589,13 @@
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="5"/>

--- a/scenarios/cough/processes/Introduction.xlsx
+++ b/scenarios/cough/processes/Introduction.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -60,6 +60,81 @@
   <si>
     <t xml:space="preserve">Hey, ich bin dein Husten-Experte. So funktioniere ich: Zuerst finden wir das richtige Medikament für dich, dann erkläre ich dir für jedes Produkt alles, was du wissen musst. 
 Dann, wenn du möchtest, kannst du deine Medikamente direkt kaufen und ich liefere sie dir bequem noch am gleichen Tag* nach Hause.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---
+# h1 Heading 8-)
+## h2 Heading
+### h3 Heading
+#### h4 Heading
+##### h5 Heading
+###### h6 Heading
+## Horizontal Rules
+___
+---
+***
+## Typographic replacements
+Enable typographer option to see result.
+(c) (C) (r) (R) (tm) (TM) (p) (P) +-
+test.. test... test..... test?..... test!....
+!!!!!! ???? ,,  -- ---
+"Smartypants, double quotes" and 'single quotes'
+## Emphasis
+**This is bold text**
+__This is bold text__
+*This is italic text*
+_This is italic text_
+~~Strikethrough~~
+## Blockquotes
+&gt; Blockquotes can also be nested...
+&gt;&gt; ...by using additional greater-than signs right next to each other...
+&gt; &gt; &gt; ...or with spaces between arrows.
+## Lists
+Unordered
++ Create a list by starting a line with `+`, `-`, or `*`
++ Sub-lists are made by indenting 2 spaces:
+  - Marker character change forces new list start:
+    * Ac tristique libero volutpat at
+    + Facilisis in pretium nisl aliquet
+    - Nulla volutpat aliquam velit
++ Very easy!
+Ordered
+1. Lorem ipsum dolor sit amet
+2. Consectetur adipiscing elit
+3. Integer molestie lorem at massa
+1. You can use sequential numbers...
+1. ...or keep all the numbers as `1.`
+Start numbering with offset:
+57. foo
+1. bar
+## Code
+Inline `code`
+Indented code
+    // Some comments
+    line 1 of code
+    line 2 of code
+    line 3 of code
+Block code "fences"
+```
+Sample text here...
+```
+Syntax highlighting
+``` js
+var foo = function (bar) {
+  return bar++;
+};
+console.log(foo(5));
+```
+## Tables
+| Option | Description |
+| ------ | ----------- |
+| data   | path to data files to supply the data that will be passed into templates. |
+| engine | engine to be used for processing templates. Handlebars is the default. |
+| ext    | extension to be used for dest files. |
+</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -249,11 +324,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,6 +367,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -386,11 +465,11 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.53"/>
@@ -443,34 +522,40 @@
       <c r="E2" s="5"/>
       <c r="F2" s="9"/>
       <c r="G2" s="5"/>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="9"/>
@@ -480,13 +565,13 @@
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="5"/>
@@ -495,29 +580,29 @@
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="9"/>
@@ -527,13 +612,13 @@
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="5"/>
@@ -542,29 +627,29 @@
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="9"/>
@@ -573,14 +658,14 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="10" t="s">
-        <v>13</v>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
@@ -588,35 +673,35 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scenarios/cough/processes/Introduction.xlsx
+++ b/scenarios/cough/processes/Introduction.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -158,15 +158,76 @@
     <t xml:space="preserve">Ja.</t>
   </si>
   <si>
+    <t xml:space="preserve">GO(date_example)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMP(Dropout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me your birthdate. I promise to keep the secret :)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GO(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">prompt_example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">An example of date picker component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prompt_example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prompt example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now tell me what is you opinion on medical chatbots!</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO(self)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nein.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMP(Dropout)</t>
-  </si>
-  <si>
     <t xml:space="preserve">self</t>
   </si>
   <si>
@@ -174,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bestätigst du, dass es um ein Medikament für dich selbst/Symptom bei dir selbst geht?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An example of free text input component</t>
   </si>
   <si>
     <t xml:space="preserve">GO(data)</t>
@@ -199,7 +263,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,6 +308,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -324,7 +394,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -463,17 +533,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -561,7 +633,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
@@ -591,7 +663,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -599,109 +671,165 @@
         <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="5"/>
+      <c r="H7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="H8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="9"/>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="9"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="12"/>
     </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="12"/>
+    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="13"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scenarios/cough/processes/Introduction.xlsx
+++ b/scenarios/cough/processes/Introduction.xlsx
@@ -128,12 +128,6 @@
 };
 console.log(foo(5));
 ```
-## Tables
-| Option | Description |
-| ------ | ----------- |
-| data   | path to data files to supply the data that will be passed into templates. |
-| engine | engine to be used for processing templates. Handlebars is the default. |
-| ext    | extension to be used for dest files. |
 </t>
   </si>
   <si>
@@ -179,35 +173,7 @@
     <t xml:space="preserve">Give me your birthdate. I promise to keep the secret :)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GO(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">prompt_example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">GO(prompt_example)</t>
   </si>
   <si>
     <t xml:space="preserve">An example of date picker component</t>
@@ -263,7 +229,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -308,12 +274,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -535,8 +495,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="1599.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
